--- a/Modelos UML/Descrição UseCases/CarroPronto.xlsx
+++ b/Modelos UML/Descrição UseCases/CarroPronto.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\UseCase\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FB7C7E-CFA9-498D-8A81-8EC3EF620630}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="465" windowWidth="25440" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="25440" windowHeight="14715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,9 +51,6 @@
     <t>Estar autenticado no sistema</t>
   </si>
   <si>
-    <t>Administrador</t>
-  </si>
-  <si>
     <t>Carro Pronto</t>
   </si>
   <si>
@@ -86,12 +82,15 @@
   </si>
   <si>
     <t>5.1. Informa que ID é inválido</t>
+  </si>
+  <si>
+    <t>Funcionário</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -287,6 +286,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -298,12 +303,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,7 +617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -638,40 +637,40 @@
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="12"/>
+      <c r="C2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="14"/>
+      <c r="C5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -682,70 +681,70 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="16"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="10"/>
       <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="12"/>
+      <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="16"/>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="16"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="5"/>
       <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="12"/>
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="16"/>
-      <c r="C10" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="16"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="5"/>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="16"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="16"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="5"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="15" t="s">
-        <v>15</v>
+      <c r="B14" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="16"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="16"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="6"/>
       <c r="D16" s="3"/>
     </row>

--- a/Modelos UML/Descrição UseCases/CarroPronto.xlsx
+++ b/Modelos UML/Descrição UseCases/CarroPronto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Actor input</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Funcionário</t>
+  </si>
+  <si>
+    <t>7. Informa que operação foi realizada</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
   <dimension ref="B1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -725,7 +728,9 @@
     <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="12"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="11" t="s">

--- a/Modelos UML/Descrição UseCases/CarroPronto.xlsx
+++ b/Modelos UML/Descrição UseCases/CarroPronto.xlsx
@@ -72,9 +72,6 @@
     <t>Alternativa [ID Inválido] (passo 5)</t>
   </si>
   <si>
-    <t>6. Adicionar carro à lista de carros produzidos</t>
-  </si>
-  <si>
     <t>5. Valida ID do carro</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>7. Informa que operação foi realizada</t>
+  </si>
+  <si>
+    <t>6. Remove carro da lista de produção</t>
   </si>
 </sst>
 </file>
@@ -621,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D16"/>
+  <dimension ref="B1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -650,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="14"/>
     </row>
@@ -715,52 +715,57 @@
       <c r="B11" s="12"/>
       <c r="C11" s="5"/>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="12"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="12"/>
       <c r="C13" s="5"/>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="12"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="3"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="12"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B15:B17"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B6:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Modelos UML/Descrição UseCases/CarroPronto.xlsx
+++ b/Modelos UML/Descrição UseCases/CarroPronto.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\Modelos UML\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D103C1-EC9C-4C0A-ABBC-AD6F3DC7E03F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="465" windowWidth="25440" windowHeight="14715"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="25440" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Actor input</t>
   </si>
@@ -69,15 +70,9 @@
     <t>4. Dá o ID do carro que ficou pronto</t>
   </si>
   <si>
-    <t>Alternativa [ID Inválido] (passo 5)</t>
-  </si>
-  <si>
     <t>5. Valida ID do carro</t>
   </si>
   <si>
-    <t>Regressa a 3</t>
-  </si>
-  <si>
     <t>5.1. Informa que ID é inválido</t>
   </si>
   <si>
@@ -88,12 +83,15 @@
   </si>
   <si>
     <t>6. Remove carro da lista de produção</t>
+  </si>
+  <si>
+    <t>Exceção 1 [ID Inválido] (passo 5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -620,11 +618,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -650,7 +648,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="14"/>
     </row>
@@ -715,21 +713,21 @@
       <c r="B11" s="12"/>
       <c r="C11" s="5"/>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="12"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="12"/>
       <c r="C13" s="5"/>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -739,19 +737,17 @@
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="12"/>

--- a/Modelos UML/Descrição UseCases/CarroPronto.xlsx
+++ b/Modelos UML/Descrição UseCases/CarroPronto.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\Modelos UML\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D103C1-EC9C-4C0A-ABBC-AD6F3DC7E03F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="465" windowWidth="25440" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="25440" windowHeight="14715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -618,11 +617,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Modelos UML/Descrição UseCases/CarroPronto.xlsx
+++ b/Modelos UML/Descrição UseCases/CarroPronto.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\Modelos UML\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF47A5A9-7F2C-4E98-905C-5C6A74383140}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="465" windowWidth="25440" windowHeight="14715"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="25440" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -617,7 +618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
